--- a/public/salesreport.xlsx
+++ b/public/salesreport.xlsx
@@ -25,7 +25,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -38,16 +38,8 @@
         <bgColor/>
       </patternFill>
     </fill>
-    <fill/>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -59,11 +51,8 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -384,8 +373,8 @@
       <c r="C2">
         <v>18</v>
       </c>
-      <c r="D2" s="1">
-        <v>45231.19410618975</v>
+      <c r="D2" t="str">
+        <v>2023-11-01</v>
       </c>
       <c r="E2" t="str">
         <v>RAZOR PAY</v>
@@ -397,6 +386,448 @@
         <v>999</v>
       </c>
       <c r="H2" t="str">
+        <v>delivered</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E3" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>698</v>
+      </c>
+      <c r="H3" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E4" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1798</v>
+      </c>
+      <c r="H4" t="str">
+        <v>pending</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E5" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1697</v>
+      </c>
+      <c r="H5" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E6" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>799</v>
+      </c>
+      <c r="H6" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E7" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>999</v>
+      </c>
+      <c r="H7" t="str">
+        <v>pending</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E8" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>999</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E9" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>999</v>
+      </c>
+      <c r="H9" t="str">
+        <v>pending</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E10" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>999</v>
+      </c>
+      <c r="H10" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E11" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>999</v>
+      </c>
+      <c r="H11" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E12" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>999</v>
+      </c>
+      <c r="H12" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E13" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>999</v>
+      </c>
+      <c r="H13" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E14" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>999</v>
+      </c>
+      <c r="H14" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E15" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>999</v>
+      </c>
+      <c r="H15" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E16" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2496</v>
+      </c>
+      <c r="H16" t="str">
+        <v>delivered</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E17" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>999</v>
+      </c>
+      <c r="H17" t="str">
+        <v>delivered</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E18" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>698</v>
+      </c>
+      <c r="H18" t="str">
+        <v>delivered</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E19" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>999</v>
+      </c>
+      <c r="H19" t="str">
         <v>delivered</v>
       </c>
     </row>

--- a/public/salesreport.xlsx
+++ b/public/salesreport.xlsx
@@ -365,54 +365,860 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D2" t="str">
-        <v>2023-11-07</v>
+        <v>2023-11-18</v>
       </c>
       <c r="E2" t="str">
-        <v>RAZOR PAY</v>
+        <v>COD</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>4488</v>
+        <v>3199</v>
       </c>
       <c r="H2" t="str">
-        <v>delivered</v>
+        <v>cancelled</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" t="str">
-        <v>2023-11-01</v>
+        <v>2023-11-08</v>
       </c>
       <c r="E3" t="str">
         <v>RAZOR PAY</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>999</v>
+        <v>3988</v>
       </c>
       <c r="H3" t="str">
+        <v>cancelled</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2023-11-24</v>
+      </c>
+      <c r="E4" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F4">
+        <v>53</v>
+      </c>
+      <c r="G4">
+        <v>1389</v>
+      </c>
+      <c r="H4" t="str">
         <v>delivered</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2023-11-08</v>
+      </c>
+      <c r="E5" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>2599</v>
+      </c>
+      <c r="H5" t="str">
+        <v>delivered</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2023-11-07</v>
+      </c>
+      <c r="E6" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>4488</v>
+      </c>
+      <c r="H6" t="str">
+        <v>delivered</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2023-11-08</v>
+      </c>
+      <c r="E7" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>2599</v>
+      </c>
+      <c r="H7" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2023-11-08</v>
+      </c>
+      <c r="E8" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>2188</v>
+      </c>
+      <c r="H8" t="str">
+        <v>delivered</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2023-11-08</v>
+      </c>
+      <c r="E9" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>3199</v>
+      </c>
+      <c r="H9" t="str">
+        <v>processing</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E10" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>15995</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E11" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>9897</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E12" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>1598</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E13" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>5575</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E14" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>7897</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E15" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>13890</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>34</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E16" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>13890</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E17" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>5556</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E18" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>6398</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>37</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E19" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F19">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>4167</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E20" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F20">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>4167</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E21" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F21">
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <v>2778</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E22" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>13890</v>
+      </c>
+      <c r="H22" t="str">
+        <v>pending</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E23" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F23">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>5598</v>
+      </c>
+      <c r="H23" t="str">
+        <v>cancelled</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2023-11-14</v>
+      </c>
+      <c r="E24" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>12796</v>
+      </c>
+      <c r="H24" t="str">
+        <v>cancelled</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2023-11-15</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Wallet</v>
+      </c>
+      <c r="F25">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>2999</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>42</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2023-11-15</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Wallet</v>
+      </c>
+      <c r="F26">
+        <v>42</v>
+      </c>
+      <c r="G26">
+        <v>1598</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2023-11-15</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Wallet</v>
+      </c>
+      <c r="F27">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>2799</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>44</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2023-11-16</v>
+      </c>
+      <c r="E28" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F28">
+        <v>45</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2023-11-16</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Wallet</v>
+      </c>
+      <c r="F29">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>9228</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>47</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2023-11-16</v>
+      </c>
+      <c r="E30" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F30">
+        <v>48</v>
+      </c>
+      <c r="G30">
+        <v>799</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Processing</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>46</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2023-11-16</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Wallet</v>
+      </c>
+      <c r="F31">
+        <v>46</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="str">
+        <v>returned</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2023-11-13</v>
+      </c>
+      <c r="E32" t="str">
+        <v>COD</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>2397</v>
+      </c>
+      <c r="H32" t="str">
+        <v>cancelled</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>49</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2023-11-18</v>
+      </c>
+      <c r="E33" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>899</v>
+      </c>
+      <c r="H33" t="str">
+        <v>returned</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2023-11-18</v>
+      </c>
+      <c r="E34" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F34">
+        <v>51</v>
+      </c>
+      <c r="G34">
+        <v>2688</v>
+      </c>
+      <c r="H34" t="str">
+        <v>returned</v>
       </c>
     </row>
   </sheetData>

--- a/public/salesreport.xlsx
+++ b/public/salesreport.xlsx
@@ -365,25 +365,25 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D2" t="str">
-        <v>2023-11-08</v>
+        <v>2023-11-24</v>
       </c>
       <c r="E2" t="str">
         <v>COD</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>2599</v>
+        <v>1389</v>
       </c>
       <c r="H2" t="str">
         <v>delivered</v>
@@ -391,25 +391,25 @@
     </row>
     <row r="3">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="str">
-        <v>2023-11-07</v>
+        <v>2023-11-08</v>
       </c>
       <c r="E3" t="str">
-        <v>RAZOR PAY</v>
+        <v>COD</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>4488</v>
+        <v>2599</v>
       </c>
       <c r="H3" t="str">
         <v>delivered</v>
@@ -423,19 +423,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="str">
-        <v>2023-11-01</v>
+        <v>2023-11-07</v>
       </c>
       <c r="E4" t="str">
         <v>RAZOR PAY</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>999</v>
+        <v>4488</v>
       </c>
       <c r="H4" t="str">
         <v>delivered</v>
@@ -443,25 +443,25 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="str">
-        <v>2023-11-08</v>
+        <v>2023-11-01</v>
       </c>
       <c r="E5" t="str">
-        <v>COD</v>
+        <v>RAZOR PAY</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>2188</v>
+        <v>999</v>
       </c>
       <c r="H5" t="str">
         <v>delivered</v>
@@ -469,25 +469,25 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D6" t="str">
-        <v>2023-10-29</v>
+        <v>2023-11-08</v>
       </c>
       <c r="E6" t="str">
         <v>COD</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>2496</v>
+        <v>2188</v>
       </c>
       <c r="H6" t="str">
         <v>delivered</v>
@@ -501,19 +501,19 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
         <v>2023-10-29</v>
       </c>
       <c r="E7" t="str">
-        <v>RAZOR PAY</v>
+        <v>COD</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>999</v>
+        <v>2496</v>
       </c>
       <c r="H7" t="str">
         <v>delivered</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="str">
         <v>2023-10-29</v>
@@ -536,10 +536,10 @@
         <v>RAZOR PAY</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>698</v>
+        <v>999</v>
       </c>
       <c r="H8" t="str">
         <v>delivered</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" t="str">
         <v>2023-10-29</v>
@@ -562,12 +562,38 @@
         <v>RAZOR PAY</v>
       </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>698</v>
+      </c>
+      <c r="H9" t="str">
+        <v>delivered</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="D10" t="str">
+        <v>2023-10-29</v>
+      </c>
+      <c r="E10" t="str">
+        <v>RAZOR PAY</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
         <v>999</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H10" t="str">
         <v>delivered</v>
       </c>
     </row>
